--- a/output/fit_clients/fit_round_137.xlsx
+++ b/output/fit_clients/fit_round_137.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2351029408.74467</v>
+        <v>1819866863.816806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07698923932328182</v>
+        <v>0.09753009864826009</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03373667292551397</v>
+        <v>0.03747407355904604</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1175514747.150191</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2078505480.501396</v>
+        <v>1864274067.577875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1365389377990166</v>
+        <v>0.1506533120465063</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04568540340563527</v>
+        <v>0.04946922349478172</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1039252792.42179</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4078827879.009943</v>
+        <v>4562896757.672936</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1500392411681107</v>
+        <v>0.1380012115755397</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0307860135827828</v>
+        <v>0.02730726175762295</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2039413959.22251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3899443248.021301</v>
+        <v>2661348908.156372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08104577162106491</v>
+        <v>0.08473771659710728</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05034053795200578</v>
+        <v>0.04224224975893034</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1949721634.323333</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2654510309.010543</v>
+        <v>2200064538.857039</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1169145137067539</v>
+        <v>0.1294704151804635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04641634681121349</v>
+        <v>0.04950315733099855</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1327255113.21541</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3151168735.668987</v>
+        <v>2455432739.209634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06700829631705463</v>
+        <v>0.06351451128973001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04557732881401397</v>
+        <v>0.03840768745348951</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>40</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1575584318.177267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3159629101.01275</v>
+        <v>2548069802.66948</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1973041379114829</v>
+        <v>0.139924946491269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02434215439682438</v>
+        <v>0.03134091329823543</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1579814624.298393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1705452594.836315</v>
+        <v>1616692876.290027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150632270948016</v>
+        <v>0.158015540589953</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02951103742177849</v>
+        <v>0.03741637039350464</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>852726364.8518537</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4131187673.448221</v>
+        <v>3740772883.256246</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627246160248965</v>
+        <v>0.1882344328557132</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03620863943100913</v>
+        <v>0.03559501969578386</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>58</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2065593868.724677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2605413304.118766</v>
+        <v>3361622828.541734</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1758867114898942</v>
+        <v>0.1624136325271773</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04545695549819977</v>
+        <v>0.03157489249214458</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>57</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1302706567.410094</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2372180892.379265</v>
+        <v>2237951865.281766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1494637292267438</v>
+        <v>0.1811095794291957</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04516314936921646</v>
+        <v>0.05378052252723985</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1186090406.680566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3790468246.636581</v>
+        <v>4305089908.210206</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09313297224721473</v>
+        <v>0.1000614377789091</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02673140025427474</v>
+        <v>0.02874771657104797</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>46</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1895234188.855197</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3646066849.68923</v>
+        <v>2615213062.126486</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1580588988129915</v>
+        <v>0.1589110728752192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03273751957314276</v>
+        <v>0.03369246508378181</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1823033412.467745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1697995255.822117</v>
+        <v>1129468291.452677</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09784863574447911</v>
+        <v>0.07318687319786149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03274799105844018</v>
+        <v>0.04899425771790604</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>848997758.2533693</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2882879215.448971</v>
+        <v>2210359268.4129</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09865153075124708</v>
+        <v>0.09210514587596806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04439181597921785</v>
+        <v>0.04800517556427187</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1441439604.278704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4770033831.357603</v>
+        <v>4375980722.835916</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1433361372097787</v>
+        <v>0.1193940714117902</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03336729229558112</v>
+        <v>0.03738917352427858</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2385016912.125424</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3162191026.35547</v>
+        <v>3355507467.369066</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1467458791427571</v>
+        <v>0.1755381275794563</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03113317424440214</v>
+        <v>0.02647868051514991</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>45</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1581095531.70135</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1049582677.475239</v>
+        <v>943858560.0973819</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1458763828098574</v>
+        <v>0.1897826792025459</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01870423501278051</v>
+        <v>0.0190796361481962</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>524791380.0058796</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2236601832.585652</v>
+        <v>1702473819.249474</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1457749592917474</v>
+        <v>0.1357202092787868</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02525635634917255</v>
+        <v>0.02412828432817787</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>22</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1118300917.375443</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2396220501.159961</v>
+        <v>2426838345.766234</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06631756285302176</v>
+        <v>0.07023356322832899</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03305897380836453</v>
+        <v>0.04428287565941694</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1198110248.615649</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3809468190.289567</v>
+        <v>2955312651.468936</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09642090002552851</v>
+        <v>0.1386890064031162</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03978117290230119</v>
+        <v>0.05649614074658404</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>38</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1904734108.153077</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1016607661.691586</v>
+        <v>1498706708.222024</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1391564493517352</v>
+        <v>0.1828948489815307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03675859635405971</v>
+        <v>0.04737728851034406</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>508303898.1883954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2909765664.734079</v>
+        <v>3624027708.61686</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1047437695121501</v>
+        <v>0.1430688755264833</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02290197203020859</v>
+        <v>0.02674207008536022</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1454882873.608451</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1248487187.069656</v>
+        <v>1046021731.444195</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1183302500353977</v>
+        <v>0.1083405087956042</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02259863742145821</v>
+        <v>0.02977729374443651</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>624243600.3058112</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1174803286.490976</v>
+        <v>1133570542.534589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09891388097828012</v>
+        <v>0.1021138753203246</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0371744195485326</v>
+        <v>0.02436824887292941</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>587401658.041631</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3702175835.624956</v>
+        <v>4015511197.444999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1264702040133738</v>
+        <v>0.1432973950154467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02046961967732704</v>
+        <v>0.01663755193834274</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>33</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1851087942.697444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2757114071.787839</v>
+        <v>2720421835.729908</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1475625027814545</v>
+        <v>0.09703276616515535</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04782034000707117</v>
+        <v>0.03323020238504744</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>44</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1378557025.980937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5472558813.580417</v>
+        <v>4984816719.141547</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1281571974085241</v>
+        <v>0.1038323215430967</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02865341585087585</v>
+        <v>0.04510152613320777</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>64</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2736279321.527898</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1934882647.792099</v>
+        <v>2195550330.279989</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1070288003784316</v>
+        <v>0.1155677812220069</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03418781730933693</v>
+        <v>0.02838975341966197</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>967441353.8811514</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1227332571.498861</v>
+        <v>1371491380.092704</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07524170181472573</v>
+        <v>0.08572800717516914</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03163803544256204</v>
+        <v>0.04593814387762254</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>613666230.7283299</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1206689216.580103</v>
+        <v>1532245492.199877</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1066216545654507</v>
+        <v>0.1060299699287509</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02440724115056185</v>
+        <v>0.03402866238690178</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>603344615.8522189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3074332118.55131</v>
+        <v>1955471407.033444</v>
       </c>
       <c r="F33" t="n">
-        <v>0.155478627348595</v>
+        <v>0.1637686505473835</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04090989852843645</v>
+        <v>0.04150871994278189</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>41</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1537166048.534678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1474101538.63074</v>
+        <v>1236221380.261946</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1207880808632117</v>
+        <v>0.1168786555012535</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02752069855756653</v>
+        <v>0.01856270126788387</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>737050729.4139887</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183134608.42487</v>
+        <v>1060966527.130798</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09679335381964979</v>
+        <v>0.07651564347171963</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0335245958373992</v>
+        <v>0.03733531088956669</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>591567282.5862309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1993792605.353456</v>
+        <v>2927203016.659606</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1609681947852964</v>
+        <v>0.1632515973066633</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01813164964637298</v>
+        <v>0.02003017095218245</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>996896365.1786263</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1956074216.737187</v>
+        <v>2651601482.676266</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114274060948648</v>
+        <v>0.1052495751471906</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03273557112654039</v>
+        <v>0.03642651211558038</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>37</v>
-      </c>
-      <c r="J37" t="n">
-        <v>978037129.5896485</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1888358809.501456</v>
+        <v>1754103376.389909</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1070097673928948</v>
+        <v>0.1043127464608594</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03769862983704862</v>
+        <v>0.0249778490463833</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>944179399.1040572</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1586667379.774999</v>
+        <v>1933591621.128527</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1692414082113047</v>
+        <v>0.141391650433945</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02772629474723671</v>
+        <v>0.03115818318206454</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>793333747.1225152</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1659856176.669778</v>
+        <v>1310925435.422712</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1623080014608585</v>
+        <v>0.1450950253217619</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03783130444651581</v>
+        <v>0.03636329016829818</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>829928014.4444017</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1991123410.307175</v>
+        <v>2363473112.036807</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1521927063983089</v>
+        <v>0.1373166637727497</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03321938070887689</v>
+        <v>0.03665635342177824</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34</v>
-      </c>
-      <c r="J41" t="n">
-        <v>995561780.2359232</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3849657117.203286</v>
+        <v>3931340990.974837</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1056006687712093</v>
+        <v>0.1055004973796846</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03010948728345525</v>
+        <v>0.04247048101490637</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1924828577.485167</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2889897400.398206</v>
+        <v>2336784156.62923</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1690556507656011</v>
+        <v>0.1294166151171121</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01813413281826415</v>
+        <v>0.01957417441409732</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>45</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1444948709.618354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1625182476.177944</v>
+        <v>1942098618.163687</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06491764306286954</v>
+        <v>0.07769129420804442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02423111356310271</v>
+        <v>0.02404670239796158</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>812591269.5980297</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2264313189.918485</v>
+        <v>2139649106.374388</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1594421295986258</v>
+        <v>0.1839126591845291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04895069466830244</v>
+        <v>0.03491031028090119</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1132156612.446229</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4152743702.692181</v>
+        <v>4619942911.762523</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1384914777134805</v>
+        <v>0.1352424889344502</v>
       </c>
       <c r="G46" t="n">
-        <v>0.050803111141812</v>
+        <v>0.05899139194718218</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>49</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2076371829.574241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4439972411.674376</v>
+        <v>4659340350.807217</v>
       </c>
       <c r="F47" t="n">
-        <v>0.181323241803969</v>
+        <v>0.2024696189270351</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04473848888436689</v>
+        <v>0.05656308239891841</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>37</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2219986229.850884</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3083650863.583804</v>
+        <v>3760692861.177639</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090271240903165</v>
+        <v>0.09422579043462313</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03698545521668099</v>
+        <v>0.03486437921992903</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>47</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1541825519.347327</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1218869204.595658</v>
+        <v>1537362977.376092</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1744079875080431</v>
+        <v>0.1760496986789726</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04245368014897083</v>
+        <v>0.02964588603316679</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>609434677.9890411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3354811180.966321</v>
+        <v>2712303572.343987</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1354827764883098</v>
+        <v>0.1269033630454515</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04083152219695953</v>
+        <v>0.03914281709403561</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>47</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1677405625.043886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1330604671.765166</v>
+        <v>943798612.9405873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1808841170379069</v>
+        <v>0.1840729216205696</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05012926394400494</v>
+        <v>0.04144221078175617</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>665302366.2358153</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3443152595.985921</v>
+        <v>4369552554.107585</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1151939328503837</v>
+        <v>0.108731392986408</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04172831074973677</v>
+        <v>0.04356486796062771</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>57</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1721576387.203491</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2643097030.732999</v>
+        <v>3067387228.15796</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1416901330764353</v>
+        <v>0.204261513320965</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03345204575778837</v>
+        <v>0.03074501892627835</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>39</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1321548572.395199</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3066312608.414663</v>
+        <v>4012167323.482274</v>
       </c>
       <c r="F54" t="n">
-        <v>0.149492127409012</v>
+        <v>0.1342729128150187</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04923003796369833</v>
+        <v>0.04123625123474108</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1533156294.92231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4562950363.241851</v>
+        <v>3260823934.905076</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1963288727134826</v>
+        <v>0.1370219331402935</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02874243063957336</v>
+        <v>0.02479517214101152</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2281475181.353867</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1585920233.979316</v>
+        <v>1401156767.524571</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1133736207374244</v>
+        <v>0.1162508721524431</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03727816379325755</v>
+        <v>0.04108144170069265</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>792960146.4929245</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3627840247.483148</v>
+        <v>3173515743.250385</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1825534601232803</v>
+        <v>0.1331404560228091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02645686648658794</v>
+        <v>0.02499615920526405</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>43</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1813920180.821597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1231988495.147727</v>
+        <v>1439982219.802039</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1405856506111754</v>
+        <v>0.2005580126221213</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03156047404566011</v>
+        <v>0.03695179853207015</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>615994303.126181</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5233975032.546619</v>
+        <v>4521092802.747639</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09174394021394267</v>
+        <v>0.07951985225498405</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03173727633890922</v>
+        <v>0.04572726743729796</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2616987432.66116</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3743800711.64735</v>
+        <v>3401287279.841825</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1796830905933982</v>
+        <v>0.1561274016055455</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03118144708039879</v>
+        <v>0.03327039186552093</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1871900504.122116</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2347539533.018857</v>
+        <v>3280909511.6498</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1151505972175217</v>
+        <v>0.1442863730752644</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02354838515015602</v>
+        <v>0.02212688393199538</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1173769808.462235</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1494767040.594593</v>
+        <v>1766721641.098843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1339660646372144</v>
+        <v>0.1557822525651192</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04968019344080809</v>
+        <v>0.04148161323513309</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>747383502.522483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3853308820.283613</v>
+        <v>4742901296.425664</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09322443124907399</v>
+        <v>0.08318413590198953</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04413418768162575</v>
+        <v>0.04235329681568744</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1926654479.04919</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5352675034.237732</v>
+        <v>4703906471.409678</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1906289405483262</v>
+        <v>0.1420431500665362</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02449642516302878</v>
+        <v>0.03027502683656285</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>43</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2676337648.071153</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4555705817.028649</v>
+        <v>5535623851.740426</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1350675751959311</v>
+        <v>0.1592135092883775</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02533335393536409</v>
+        <v>0.02529861597267857</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>49</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2277852893.888848</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5464080572.265301</v>
+        <v>4372620232.134989</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1513945145073561</v>
+        <v>0.1403938040610195</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03763120202582108</v>
+        <v>0.04668187232711663</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2732040338.116733</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3118683317.786608</v>
+        <v>3238847435.602224</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06815191894604213</v>
+        <v>0.06383073772706858</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05043377770752988</v>
+        <v>0.04414189633497254</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>44</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1559341667.090833</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5382139715.995217</v>
+        <v>3717577026.357527</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1158802475829202</v>
+        <v>0.1255413051593157</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03938401131189848</v>
+        <v>0.04019935066437302</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>43</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2691069937.496659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1871954669.596682</v>
+        <v>2363267679.882586</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1711757892591411</v>
+        <v>0.1672766859374007</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04119132674310694</v>
+        <v>0.04210852937301619</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>935977323.176908</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2629348447.274672</v>
+        <v>2870270009.595509</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08503170762571802</v>
+        <v>0.06475138218534661</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04981176579551996</v>
+        <v>0.04068360951022068</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>39</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1314674176.477087</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5602072371.369854</v>
+        <v>4465555993.801982</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1758245990069329</v>
+        <v>0.1274349961859797</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314857369470046</v>
+        <v>0.03286689885329578</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2801036336.292262</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2203601253.438362</v>
+        <v>1550608315.129132</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07336284091543882</v>
+        <v>0.09227915205760014</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04991281949181781</v>
+        <v>0.03863935417673131</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1101800540.179868</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2826386282.506795</v>
+        <v>2761182724.390007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0713930105407084</v>
+        <v>0.08059688323395281</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04000064758035741</v>
+        <v>0.03511677055689041</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1413193153.070323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3900612377.359634</v>
+        <v>2731476428.472064</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1548960156538131</v>
+        <v>0.1316911217912167</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02330214689125892</v>
+        <v>0.03230643609146441</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>47</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1950306176.202317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2295415291.581816</v>
+        <v>2299578778.669717</v>
       </c>
       <c r="F75" t="n">
-        <v>0.112900938552239</v>
+        <v>0.1057639307241958</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0309687355629052</v>
+        <v>0.02635907164210858</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1147707582.186804</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4319887568.579957</v>
+        <v>3533705103.333318</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1019353197944303</v>
+        <v>0.09805502127921316</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02555188814452735</v>
+        <v>0.02114276398793749</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>31</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2159943782.391722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1398866327.012587</v>
+        <v>1630768236.090686</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1391835960160945</v>
+        <v>0.1709332089216602</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02294629257972311</v>
+        <v>0.02614043166550998</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>699433136.1960403</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4313545841.985366</v>
+        <v>2924915084.525671</v>
       </c>
       <c r="F78" t="n">
-        <v>0.126796009169153</v>
+        <v>0.1196896900350231</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03442136978965001</v>
+        <v>0.04147371700091188</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>48</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2156772864.253425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1482073691.731853</v>
+        <v>1771044072.810714</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1470549288128222</v>
+        <v>0.1683103365356398</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02981425539911371</v>
+        <v>0.03607436932267333</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>741036876.8909101</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5469548098.098592</v>
+        <v>4667816536.916104</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09301864269876207</v>
+        <v>0.09242324858761301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03690821419066938</v>
+        <v>0.03763229575194062</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2734774121.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4332997144.357846</v>
+        <v>4272432374.35649</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09492666972794145</v>
+        <v>0.1283122656229712</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02374979699331699</v>
+        <v>0.02014373327878852</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2166498547.726482</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4508227419.0966</v>
+        <v>4663358679.815101</v>
       </c>
       <c r="F82" t="n">
-        <v>0.135259728731821</v>
+        <v>0.2151563737144981</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02912167839163355</v>
+        <v>0.0228326187334994</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>50</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2254113720.908185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1727873796.253894</v>
+        <v>1646374381.962578</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1262969381196152</v>
+        <v>0.1436964849135952</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0352123650408516</v>
+        <v>0.04080203359701833</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>863936849.5424519</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1871361758.609154</v>
+        <v>1816601742.502515</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0822014786041325</v>
+        <v>0.1140364762924887</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05231989617458136</v>
+        <v>0.04840841010581142</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>935680903.0917385</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3027226609.727477</v>
+        <v>2257262056.947942</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1541486475455676</v>
+        <v>0.1746013565178965</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04388640827734781</v>
+        <v>0.05051655020075661</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>52</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1513613367.988883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1870429830.192702</v>
+        <v>2255990947.019187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1708953131837542</v>
+        <v>0.1129673548543266</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532590232063255</v>
+        <v>0.025499805518899</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>935214924.6657854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1375508522.131027</v>
+        <v>1009263088.119015</v>
       </c>
       <c r="F87" t="n">
-        <v>0.182110103277896</v>
+        <v>0.1616399970211462</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03156234900205329</v>
+        <v>0.03179123858914111</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687754361.5866563</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2865335470.3362</v>
+        <v>3136052618.181152</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1732719249576672</v>
+        <v>0.1362736482506172</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02433428661907927</v>
+        <v>0.02975712758574347</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>54</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1432667752.264723</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2133944911.256572</v>
+        <v>2490511165.039572</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1499878931407144</v>
+        <v>0.1409846693722696</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02736824237800588</v>
+        <v>0.03671729167272399</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>48</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1066972557.188524</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1547829826.910694</v>
+        <v>1914676775.90759</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0990203253653504</v>
+        <v>0.09042674561923433</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05108480360164273</v>
+        <v>0.04216752296024688</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>773914900.8674579</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1727951237.868841</v>
+        <v>1772837529.705766</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1542244757929042</v>
+        <v>0.1238163846134753</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05344248740832092</v>
+        <v>0.05331325652356089</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>863975627.4129301</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2669005719.018294</v>
+        <v>2408212810.290672</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09899847216332389</v>
+        <v>0.0813783453439737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04716973899071347</v>
+        <v>0.03853572757918711</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1334502856.186032</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3663444649.645532</v>
+        <v>3929947899.268644</v>
       </c>
       <c r="F93" t="n">
-        <v>0.12294658798211</v>
+        <v>0.09711224273114573</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03654076624999218</v>
+        <v>0.04551124067868242</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1831722347.136476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2276015002.551687</v>
+        <v>1942209749.25104</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1578955021741761</v>
+        <v>0.1159079455567014</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02940264956893872</v>
+        <v>0.03829805503532699</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1138007535.518937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2229568033.920204</v>
+        <v>2368659129.218545</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08447021214173116</v>
+        <v>0.1330210841362587</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03310508175702406</v>
+        <v>0.03996824838560797</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>33</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1114784072.672763</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1726311740.857179</v>
+        <v>2049081456.008177</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1161497362471771</v>
+        <v>0.1012201729270436</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03484252308017724</v>
+        <v>0.02973258270519988</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>863155886.5785116</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3765439919.975009</v>
+        <v>3398281162.664409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1184126358236578</v>
+        <v>0.108250704090683</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0212910637055106</v>
+        <v>0.02049018092197305</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>45</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1882719997.46642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3951936852.565907</v>
+        <v>2419817020.560057</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0955544793741239</v>
+        <v>0.08839276490833828</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02318666364847308</v>
+        <v>0.02786969474104884</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>36</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1975968475.485805</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2767476150.636739</v>
+        <v>2201699734.258727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1014551990835487</v>
+        <v>0.1191575617929847</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02196709066578924</v>
+        <v>0.03098953594125334</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>43</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1383738044.409131</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4355877647.199039</v>
+        <v>4122325106.075964</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1783109312038531</v>
+        <v>0.1352518824126529</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02589145009281671</v>
+        <v>0.02207248450063203</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>42</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2177938922.623939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3537372768.04496</v>
+        <v>3565389174.176377</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1792142792187134</v>
+        <v>0.1714937838850624</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03578130461123114</v>
+        <v>0.03668830714093226</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>56</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1768686544.028671</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_137.xlsx
+++ b/output/fit_clients/fit_round_137.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1819866863.816806</v>
+        <v>2070729235.057788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09753009864826009</v>
+        <v>0.104479810052007</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03747407355904604</v>
+        <v>0.04427084315039768</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1864274067.577875</v>
+        <v>2143839393.293544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1506533120465063</v>
+        <v>0.1469012240628698</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04946922349478172</v>
+        <v>0.0317587569636421</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4562896757.672936</v>
+        <v>3360191342.490983</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1380012115755397</v>
+        <v>0.1340200128758857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02730726175762295</v>
+        <v>0.02416709374980735</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2661348908.156372</v>
+        <v>3699082819.50403</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08473771659710728</v>
+        <v>0.1009028577123769</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04224224975893034</v>
+        <v>0.03470433753584482</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2200064538.857039</v>
+        <v>2076051140.033599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1294704151804635</v>
+        <v>0.1451484750987483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950315733099855</v>
+        <v>0.05324054781552522</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2455432739.209634</v>
+        <v>2042659255.426467</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06351451128973001</v>
+        <v>0.09482759663296082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03840768745348951</v>
+        <v>0.0374513592518726</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2548069802.66948</v>
+        <v>3471946811.945594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.139924946491269</v>
+        <v>0.2184477717077541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03134091329823543</v>
+        <v>0.02062197323350314</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1616692876.290027</v>
+        <v>2244825012.060348</v>
       </c>
       <c r="F9" t="n">
-        <v>0.158015540589953</v>
+        <v>0.1449621145963007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03741637039350464</v>
+        <v>0.02834137208775211</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3740772883.256246</v>
+        <v>3894101033.676754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1882344328557132</v>
+        <v>0.1762482990088841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03559501969578386</v>
+        <v>0.05348686109169505</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3361622828.541734</v>
+        <v>3664378041.251451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1624136325271773</v>
+        <v>0.11808214218978</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03157489249214458</v>
+        <v>0.04045726132112529</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2237951865.281766</v>
+        <v>3244349455.060855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1811095794291957</v>
+        <v>0.1729588902508359</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05378052252723985</v>
+        <v>0.04347943671751323</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4305089908.210206</v>
+        <v>5015542579.984373</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1000614377789091</v>
+        <v>0.1013164959282968</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02874771657104797</v>
+        <v>0.02239281382747543</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2615213062.126486</v>
+        <v>2393840711.693297</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1589110728752192</v>
+        <v>0.1570495545944749</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03369246508378181</v>
+        <v>0.0397173638331276</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1129468291.452677</v>
+        <v>1589534421.856807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07318687319786149</v>
+        <v>0.08334875318741652</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04899425771790604</v>
+        <v>0.0408946472522564</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2210359268.4129</v>
+        <v>2066733870.047134</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09210514587596806</v>
+        <v>0.09212896977668383</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04800517556427187</v>
+        <v>0.03305924499845455</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4375980722.835916</v>
+        <v>3548957918.175046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1193940714117902</v>
+        <v>0.1156854430704949</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03738917352427858</v>
+        <v>0.0410138220011012</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3355507467.369066</v>
+        <v>3084302719.6861</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1755381275794563</v>
+        <v>0.1507642233354442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02647868051514991</v>
+        <v>0.02843517577747279</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>943858560.0973819</v>
+        <v>831250614.96038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1897826792025459</v>
+        <v>0.1721976204894215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0190796361481962</v>
+        <v>0.01956556191067477</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1702473819.249474</v>
+        <v>1989314652.168172</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1357202092787868</v>
+        <v>0.1214475010726073</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02412828432817787</v>
+        <v>0.03038663061223307</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2426838345.766234</v>
+        <v>2103757787.413093</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07023356322832899</v>
+        <v>0.09808409975074629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04428287565941694</v>
+        <v>0.03046113106060946</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2955312651.468936</v>
+        <v>2543650505.805913</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1386890064031162</v>
+        <v>0.130576677504474</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05649614074658404</v>
+        <v>0.04420276344602075</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1498706708.222024</v>
+        <v>1480459268.427253</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1828948489815307</v>
+        <v>0.1861666947792319</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04737728851034406</v>
+        <v>0.03845530729709794</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3624027708.61686</v>
+        <v>3314662656.254725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1430688755264833</v>
+        <v>0.1387233458901768</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02674207008536022</v>
+        <v>0.02309602855927748</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1046021731.444195</v>
+        <v>1030532092.341018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1083405087956042</v>
+        <v>0.08878962822840553</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02977729374443651</v>
+        <v>0.02190894341744198</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1133570542.534589</v>
+        <v>1083461529.817114</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1021138753203246</v>
+        <v>0.09331243157969045</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02436824887292941</v>
+        <v>0.03525397654605786</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4015511197.444999</v>
+        <v>2847046206.452731</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1432973950154467</v>
+        <v>0.1016540795323909</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01663755193834274</v>
+        <v>0.02581881654215695</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2720421835.729908</v>
+        <v>3700356072.621035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09703276616515535</v>
+        <v>0.09743174252487051</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03323020238504744</v>
+        <v>0.03268777795077549</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4984816719.141547</v>
+        <v>3889605594.888004</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1038323215430967</v>
+        <v>0.1312915389438734</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04510152613320777</v>
+        <v>0.03330288000715436</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2195550330.279989</v>
+        <v>1931369091.06428</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1155677812220069</v>
+        <v>0.1358227630957212</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02838975341966197</v>
+        <v>0.02755089653250826</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1371491380.092704</v>
+        <v>1423268460.915175</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08572800717516914</v>
+        <v>0.08027365122428738</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04593814387762254</v>
+        <v>0.03881257689617611</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1532245492.199877</v>
+        <v>1161290631.348568</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060299699287509</v>
+        <v>0.0759547086065155</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03402866238690178</v>
+        <v>0.02657224863151439</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1955471407.033444</v>
+        <v>2155851284.05299</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1637686505473835</v>
+        <v>0.1672596053713729</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04150871994278189</v>
+        <v>0.03691358944177835</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1236221380.261946</v>
+        <v>1278017085.942087</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1168786555012535</v>
+        <v>0.115462714014771</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01856270126788387</v>
+        <v>0.02164208622625405</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1060966527.130798</v>
+        <v>1244779324.428964</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07651564347171963</v>
+        <v>0.1172395674349637</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03733531088956669</v>
+        <v>0.03877954498498633</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2927203016.659606</v>
+        <v>1955578795.678073</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1632515973066633</v>
+        <v>0.1570275147848682</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02003017095218245</v>
+        <v>0.02437718299601586</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2651601482.676266</v>
+        <v>2843367904.673593</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1052495751471906</v>
+        <v>0.08617227731372065</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03642651211558038</v>
+        <v>0.0415284049589264</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1754103376.389909</v>
+        <v>1740493664.128685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1043127464608594</v>
+        <v>0.1117241031393383</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0249778490463833</v>
+        <v>0.03108549809464209</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1933591621.128527</v>
+        <v>1879343149.031794</v>
       </c>
       <c r="F39" t="n">
-        <v>0.141391650433945</v>
+        <v>0.1409356585498909</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03115818318206454</v>
+        <v>0.02871264271818644</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1310925435.422712</v>
+        <v>1701874226.772709</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1450950253217619</v>
+        <v>0.1103002011298804</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03636329016829818</v>
+        <v>0.04893355744032057</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2363473112.036807</v>
+        <v>2077916122.401988</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1373166637727497</v>
+        <v>0.106432465398749</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03665635342177824</v>
+        <v>0.03574444837051956</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3931340990.974837</v>
+        <v>3979105881.493866</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1055004973796846</v>
+        <v>0.07782970499959997</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04247048101490637</v>
+        <v>0.02842320417956371</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2336784156.62923</v>
+        <v>2322003637.238397</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1294166151171121</v>
+        <v>0.1887612660493262</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01957417441409732</v>
+        <v>0.02279171112256901</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1942098618.163687</v>
+        <v>1843955345.876081</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07769129420804442</v>
+        <v>0.06956086332665469</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02404670239796158</v>
+        <v>0.02359203744250947</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2139649106.374388</v>
+        <v>1691315996.679713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1839126591845291</v>
+        <v>0.1314195224904263</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03491031028090119</v>
+        <v>0.04890040347834911</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4619942911.762523</v>
+        <v>4891126098.567158</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352424889344502</v>
+        <v>0.1350049266057967</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05899139194718218</v>
+        <v>0.04241011528961608</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4659340350.807217</v>
+        <v>3589331744.695657</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2024696189270351</v>
+        <v>0.1346051228190998</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05656308239891841</v>
+        <v>0.04212732129661253</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3760692861.177639</v>
+        <v>4311705521.732494</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09422579043462313</v>
+        <v>0.1043331911229589</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03486437921992903</v>
+        <v>0.02874162295055638</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1537362977.376092</v>
+        <v>1367134587.359319</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1760496986789726</v>
+        <v>0.1606556146568049</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02964588603316679</v>
+        <v>0.02934582928406557</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2712303572.343987</v>
+        <v>3771328575.024599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1269033630454515</v>
+        <v>0.1321056458810687</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03914281709403561</v>
+        <v>0.03882999854391323</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>943798612.9405873</v>
+        <v>1134404412.409583</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1840729216205696</v>
+        <v>0.1599603462768425</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04144221078175617</v>
+        <v>0.05058505594706274</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4369552554.107585</v>
+        <v>4140911399.146625</v>
       </c>
       <c r="F52" t="n">
-        <v>0.108731392986408</v>
+        <v>0.08788859472740015</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04356486796062771</v>
+        <v>0.05258767580248355</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3067387228.15796</v>
+        <v>2843835631.059964</v>
       </c>
       <c r="F53" t="n">
-        <v>0.204261513320965</v>
+        <v>0.1362269230082598</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03074501892627835</v>
+        <v>0.0297159163447586</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4012167323.482274</v>
+        <v>3938001390.393677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1342729128150187</v>
+        <v>0.1354156834841344</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04123625123474108</v>
+        <v>0.0358533552682445</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3260823934.905076</v>
+        <v>3450874233.724545</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1370219331402935</v>
+        <v>0.1455166098098788</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02479517214101152</v>
+        <v>0.02420409639755448</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1401156767.524571</v>
+        <v>1858131087.863577</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1162508721524431</v>
+        <v>0.1210334523069288</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04108144170069265</v>
+        <v>0.04860806896861815</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3173515743.250385</v>
+        <v>3441021090.387459</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1331404560228091</v>
+        <v>0.1240806038666436</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02499615920526405</v>
+        <v>0.02166344396048126</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1439982219.802039</v>
+        <v>1276126114.723753</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2005580126221213</v>
+        <v>0.1447435042183417</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03695179853207015</v>
+        <v>0.03809791072986978</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4521092802.747639</v>
+        <v>4915385735.462705</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07951985225498405</v>
+        <v>0.09598340152612395</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04572726743729796</v>
+        <v>0.04364049282820043</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3401287279.841825</v>
+        <v>2405670369.626913</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1561274016055455</v>
+        <v>0.1445179191645744</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03327039186552093</v>
+        <v>0.0300143119817811</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3280909511.6498</v>
+        <v>3326099002.801674</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1442863730752644</v>
+        <v>0.1367698303391386</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02212688393199538</v>
+        <v>0.02812412659982079</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1766721641.098843</v>
+        <v>1326939402.791632</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1557822525651192</v>
+        <v>0.1906274765574718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04148161323513309</v>
+        <v>0.0415348957330252</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4742901296.425664</v>
+        <v>4691293930.661432</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08318413590198953</v>
+        <v>0.09113327740333828</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04235329681568744</v>
+        <v>0.04024627803844861</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4703906471.409678</v>
+        <v>4991627594.708597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1420431500665362</v>
+        <v>0.1297872745418278</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03027502683656285</v>
+        <v>0.03496648741106884</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5535623851.740426</v>
+        <v>3952839818.322165</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1592135092883775</v>
+        <v>0.1210553030711212</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02529861597267857</v>
+        <v>0.03011156178876655</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4372620232.134989</v>
+        <v>4057299892.893881</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1403938040610195</v>
+        <v>0.1012825820726998</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04668187232711663</v>
+        <v>0.03820168961370039</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3238847435.602224</v>
+        <v>3085326725.866658</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06383073772706858</v>
+        <v>0.095489308582143</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04414189633497254</v>
+        <v>0.04548435054848589</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3717577026.357527</v>
+        <v>4170013533.166661</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1255413051593157</v>
+        <v>0.150449831844008</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04019935066437302</v>
+        <v>0.03922449242803239</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2363267679.882586</v>
+        <v>2018174719.221048</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1672766859374007</v>
+        <v>0.1241971352440205</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04210852937301619</v>
+        <v>0.04396212404595658</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2870270009.595509</v>
+        <v>3338194514.913966</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06475138218534661</v>
+        <v>0.07009326527052927</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04068360951022068</v>
+        <v>0.03301357095470618</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4465555993.801982</v>
+        <v>5649880864.927281</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1274349961859797</v>
+        <v>0.1291312277593331</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03286689885329578</v>
+        <v>0.03214085675035811</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1550608315.129132</v>
+        <v>1929536034.786196</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09227915205760014</v>
+        <v>0.07629708399886009</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03863935417673131</v>
+        <v>0.0442888046276619</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2761182724.390007</v>
+        <v>3454271122.608076</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08059688323395281</v>
+        <v>0.1108866171979749</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03511677055689041</v>
+        <v>0.05084680483212307</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2731476428.472064</v>
+        <v>3619772831.79706</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1316911217912167</v>
+        <v>0.1572613336564608</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03230643609146441</v>
+        <v>0.0230702426625189</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2299578778.669717</v>
+        <v>1895659937.336697</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1057639307241958</v>
+        <v>0.1256663861909391</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02635907164210858</v>
+        <v>0.03614630130978517</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3533705103.333318</v>
+        <v>4313953312.362959</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09805502127921316</v>
+        <v>0.08186579040269829</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02114276398793749</v>
+        <v>0.02582408294455057</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1630768236.090686</v>
+        <v>2251154326.034113</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1709332089216602</v>
+        <v>0.1651451940006923</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02614043166550998</v>
+        <v>0.02770096764799675</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2924915084.525671</v>
+        <v>3394393701.314166</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1196896900350231</v>
+        <v>0.1226662331263553</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04147371700091188</v>
+        <v>0.04313902348188362</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1771044072.810714</v>
+        <v>1773441775.795243</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1683103365356398</v>
+        <v>0.1366464597455854</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03607436932267333</v>
+        <v>0.03151451706538233</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4667816536.916104</v>
+        <v>4938573616.78097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09242324858761301</v>
+        <v>0.08677605233132822</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03763229575194062</v>
+        <v>0.02368668389151137</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4272432374.35649</v>
+        <v>3903541824.517413</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1283122656229712</v>
+        <v>0.09062831147081739</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02014373327878852</v>
+        <v>0.02040362491688754</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4663358679.815101</v>
+        <v>5513221722.452193</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2151563737144981</v>
+        <v>0.1895950021126168</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0228326187334994</v>
+        <v>0.02722906869094802</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1646374381.962578</v>
+        <v>1608464954.082757</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1436964849135952</v>
+        <v>0.1558327366166469</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04080203359701833</v>
+        <v>0.0290818665687452</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1816601742.502515</v>
+        <v>2500936458.744376</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1140364762924887</v>
+        <v>0.0731031179749473</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04840841010581142</v>
+        <v>0.04031709398716327</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2257262056.947942</v>
+        <v>3528277067.452747</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1746013565178965</v>
+        <v>0.1850133165660292</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05051655020075661</v>
+        <v>0.05313074873915494</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2255990947.019187</v>
+        <v>2755334259.114229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1129673548543266</v>
+        <v>0.1457486008777137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.025499805518899</v>
+        <v>0.01726016077640648</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1009263088.119015</v>
+        <v>1297108699.459895</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1616399970211462</v>
+        <v>0.1274498293156455</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03179123858914111</v>
+        <v>0.0311962963625412</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3136052618.181152</v>
+        <v>2270481380.429599</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1362736482506172</v>
+        <v>0.1274390846221243</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02975712758574347</v>
+        <v>0.03853669808389208</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2490511165.039572</v>
+        <v>2228566092.970339</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1409846693722696</v>
+        <v>0.104617433756174</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03671729167272399</v>
+        <v>0.03048147855960704</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1914676775.90759</v>
+        <v>1774431310.608425</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09042674561923433</v>
+        <v>0.1165129857845024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04216752296024688</v>
+        <v>0.05277638126617328</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1772837529.705766</v>
+        <v>1942809773.084057</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1238163846134753</v>
+        <v>0.19498953003574</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05331325652356089</v>
+        <v>0.03828690377766616</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2408212810.290672</v>
+        <v>2465368767.156125</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0813783453439737</v>
+        <v>0.1085647220114008</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03853572757918711</v>
+        <v>0.03075445849524291</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3929947899.268644</v>
+        <v>4389584607.871522</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09711224273114573</v>
+        <v>0.1194790613268637</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04551124067868242</v>
+        <v>0.03299900475722013</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1942209749.25104</v>
+        <v>1822642851.028354</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1159079455567014</v>
+        <v>0.1212066397315394</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03829805503532699</v>
+        <v>0.03667617443543117</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2368659129.218545</v>
+        <v>2384098819.50878</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1330210841362587</v>
+        <v>0.09304568151635202</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03996824838560797</v>
+        <v>0.04690659205233873</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2049081456.008177</v>
+        <v>1918283784.205564</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1012201729270436</v>
+        <v>0.09103104016450142</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02973258270519988</v>
+        <v>0.03193869915199391</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3398281162.664409</v>
+        <v>4313062430.587365</v>
       </c>
       <c r="F97" t="n">
-        <v>0.108250704090683</v>
+        <v>0.1240411148934732</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02049018092197305</v>
+        <v>0.02674862879068584</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2419817020.560057</v>
+        <v>2649845313.93842</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08839276490833828</v>
+        <v>0.122991727071922</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02786969474104884</v>
+        <v>0.03208826198071357</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2201699734.258727</v>
+        <v>2406787779.630494</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1191575617929847</v>
+        <v>0.1057950111682968</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03098953594125334</v>
+        <v>0.02469198413909788</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4122325106.075964</v>
+        <v>3403191339.039019</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1352518824126529</v>
+        <v>0.1312392448246118</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02207248450063203</v>
+        <v>0.0264362972734124</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3565389174.176377</v>
+        <v>2501892545.976195</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1714937838850624</v>
+        <v>0.1850722232734331</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03668830714093226</v>
+        <v>0.04140748196762813</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_137.xlsx
+++ b/output/fit_clients/fit_round_137.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2070729235.057788</v>
+        <v>2240311916.431618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104479810052007</v>
+        <v>0.1097234020705449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04427084315039768</v>
+        <v>0.03031674543478246</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2143839393.293544</v>
+        <v>2036296504.150822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1469012240628698</v>
+        <v>0.168433270020726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0317587569636421</v>
+        <v>0.0315518231445617</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3360191342.490983</v>
+        <v>3285696990.195915</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1340200128758857</v>
+        <v>0.1480494097490445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02416709374980735</v>
+        <v>0.02532279731314275</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>135</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3699082819.50403</v>
+        <v>4206964548.547239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009028577123769</v>
+        <v>0.07540257392627653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03470433753584482</v>
+        <v>0.0331951063996007</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56</v>
+      </c>
+      <c r="J5" t="n">
+        <v>137</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2076051140.033599</v>
+        <v>2243478144.126515</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1451484750987483</v>
+        <v>0.09536377731597659</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05324054781552522</v>
+        <v>0.03977988791774958</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2042659255.426467</v>
+        <v>2138744860.216682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09482759663296082</v>
+        <v>0.08617493665962939</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0374513592518726</v>
+        <v>0.03677911349107742</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3471946811.945594</v>
+        <v>3618891444.303544</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2184477717077541</v>
+        <v>0.175130591281109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02062197323350314</v>
+        <v>0.02961391288410424</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="n">
+        <v>111.8759667566499</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2244825012.060348</v>
+        <v>1633152830.594771</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1449621145963007</v>
+        <v>0.1664443138476271</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02834137208775211</v>
+        <v>0.03588110361332039</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3894101033.676754</v>
+        <v>4702682290.878374</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1762482990088841</v>
+        <v>0.2123368827642745</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05348686109169505</v>
+        <v>0.04586160247638565</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>125</v>
+      </c>
+      <c r="J10" t="n">
+        <v>137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>157.8167666772163</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3664378041.251451</v>
+        <v>2905769437.590511</v>
       </c>
       <c r="F11" t="n">
-        <v>0.11808214218978</v>
+        <v>0.1602341693225106</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04045726132112529</v>
+        <v>0.03191918181786429</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>59</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3244349455.060855</v>
+        <v>2603412112.537267</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1729588902508359</v>
+        <v>0.1400922838717287</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04347943671751323</v>
+        <v>0.05239867135322628</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5015542579.984373</v>
+        <v>3726409557.422036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013164959282968</v>
+        <v>0.09668814852797666</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02239281382747543</v>
+        <v>0.01919412878316978</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>67</v>
+      </c>
+      <c r="J13" t="n">
+        <v>136</v>
+      </c>
+      <c r="K13" t="n">
+        <v>116.778980033616</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2393840711.693297</v>
+        <v>3739897770.984123</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1570495545944749</v>
+        <v>0.1368639676642568</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0397173638331276</v>
+        <v>0.04404846357565963</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>137</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1589534421.856807</v>
+        <v>1241551395.061168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08334875318741652</v>
+        <v>0.09233784070552435</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0408946472522564</v>
+        <v>0.04087348740019933</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2066733870.047134</v>
+        <v>2070249053.285021</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09212896977668383</v>
+        <v>0.08590061033861661</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03305924499845455</v>
+        <v>0.04916384481958975</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3548957918.175046</v>
+        <v>5053256374.935338</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1156854430704949</v>
+        <v>0.1628115650384958</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0410138220011012</v>
+        <v>0.03724395399577376</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>66</v>
+      </c>
+      <c r="J17" t="n">
+        <v>136</v>
+      </c>
+      <c r="K17" t="n">
+        <v>128.6145999127011</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3084302719.6861</v>
+        <v>3330926792.790128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1507642233354442</v>
+        <v>0.1322041524057653</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02843517577747279</v>
+        <v>0.03434295461471588</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
+        <v>135</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>831250614.96038</v>
+        <v>845974686.1668509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1721976204894215</v>
+        <v>0.1884478776311485</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01956556191067477</v>
+        <v>0.02536309057327658</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1989314652.168172</v>
+        <v>2120010343.112477</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1214475010726073</v>
+        <v>0.1416934760747248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03038663061223307</v>
+        <v>0.0209588943848039</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2103757787.413093</v>
+        <v>1693101079.760784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09808409975074629</v>
+        <v>0.0904130200922325</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03046113106060946</v>
+        <v>0.03705477549582799</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2543650505.805913</v>
+        <v>3518173030.462397</v>
       </c>
       <c r="F22" t="n">
-        <v>0.130576677504474</v>
+        <v>0.09322529992222696</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04420276344602075</v>
+        <v>0.03666238900692422</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>137</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1480459268.427253</v>
+        <v>1334027254.48145</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1861666947792319</v>
+        <v>0.1685625629338933</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03845530729709794</v>
+        <v>0.05448100856118675</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3314662656.254725</v>
+        <v>2770025138.331558</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1387233458901768</v>
+        <v>0.1228139488332418</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02309602855927748</v>
+        <v>0.03096691834946344</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40</v>
+      </c>
+      <c r="J24" t="n">
+        <v>136</v>
+      </c>
+      <c r="K24" t="n">
+        <v>59.75105515328293</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1030532092.341018</v>
+        <v>1342250587.657727</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08878962822840553</v>
+        <v>0.08458947956010629</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02190894341744198</v>
+        <v>0.02254605252262966</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1083461529.817114</v>
+        <v>982320845.9953994</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09331243157969045</v>
+        <v>0.09952289176114597</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03525397654605786</v>
+        <v>0.03020870433349345</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2847046206.452731</v>
+        <v>4243724367.274217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1016540795323909</v>
+        <v>0.1423060554202168</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02581881654215695</v>
+        <v>0.02258296524648435</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>137</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3700356072.621035</v>
+        <v>2741375957.289355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09743174252487051</v>
+        <v>0.1050529886745693</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03268777795077549</v>
+        <v>0.04535709572223662</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3889605594.888004</v>
+        <v>5601540277.237617</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1312915389438734</v>
+        <v>0.1392817049702801</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03330288000715436</v>
+        <v>0.04643051113494018</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>126</v>
+      </c>
+      <c r="J29" t="n">
+        <v>137</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1931369091.06428</v>
+        <v>1620242878.585906</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1358227630957212</v>
+        <v>0.1232182653044142</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02755089653250826</v>
+        <v>0.02928266603075179</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423268460.915175</v>
+        <v>1114754191.380877</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08027365122428738</v>
+        <v>0.06800120228586909</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03881257689617611</v>
+        <v>0.04059851412552853</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1161290631.348568</v>
+        <v>1202926885.472705</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0759547086065155</v>
+        <v>0.07657329355771905</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02657224863151439</v>
+        <v>0.02679441802676513</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2155851284.05299</v>
+        <v>2651911912.418464</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1672596053713729</v>
+        <v>0.1644429110388264</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03691358944177835</v>
+        <v>0.03896727201400502</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1278017085.942087</v>
+        <v>1450630413.097859</v>
       </c>
       <c r="F34" t="n">
-        <v>0.115462714014771</v>
+        <v>0.1201117748160221</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02164208622625405</v>
+        <v>0.02228252941360168</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1244779324.428964</v>
+        <v>885618712.5393381</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1172395674349637</v>
+        <v>0.09856373904292118</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03877954498498633</v>
+        <v>0.02916901530646345</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1955578795.678073</v>
+        <v>2756356646.784804</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1570275147848682</v>
+        <v>0.1730537779233462</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02437718299601586</v>
+        <v>0.01812449884301499</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2843367904.673593</v>
+        <v>2915070512.947988</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08617227731372065</v>
+        <v>0.08896354602485147</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0415284049589264</v>
+        <v>0.0377321210362818</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1740493664.128685</v>
+        <v>1791935485.227312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1117241031393383</v>
+        <v>0.07667913473399154</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03108549809464209</v>
+        <v>0.02626561297497916</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1879343149.031794</v>
+        <v>1591669214.028413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1409356585498909</v>
+        <v>0.1306839848536398</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02871264271818644</v>
+        <v>0.03148415959193071</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1701874226.772709</v>
+        <v>1483800242.886057</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1103002011298804</v>
+        <v>0.1459844606555103</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04893355744032057</v>
+        <v>0.04126752429248349</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2077916122.401988</v>
+        <v>2886913881.813167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.106432465398749</v>
+        <v>0.1099769012516898</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03574444837051956</v>
+        <v>0.04414408711574919</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3979105881.493866</v>
+        <v>3231979185.54784</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07782970499959997</v>
+        <v>0.1211377633624894</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02842320417956371</v>
+        <v>0.03704919183543078</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>51</v>
+      </c>
+      <c r="J42" t="n">
+        <v>135</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2322003637.238397</v>
+        <v>1997244810.205858</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1887612660493262</v>
+        <v>0.1983988069479937</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02279171112256901</v>
+        <v>0.02066691175446727</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1843955345.876081</v>
+        <v>1901725317.729925</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06956086332665469</v>
+        <v>0.06661045387026497</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02359203744250947</v>
+        <v>0.03305663687385952</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1691315996.679713</v>
+        <v>2049752929.777109</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1314195224904263</v>
+        <v>0.1231271479614059</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04890040347834911</v>
+        <v>0.0505965601097217</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4891126098.567158</v>
+        <v>4238700925.784055</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1350049266057967</v>
+        <v>0.1148200788516064</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04241011528961608</v>
+        <v>0.05075788094967307</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>78</v>
+      </c>
+      <c r="J46" t="n">
+        <v>136</v>
+      </c>
+      <c r="K46" t="n">
+        <v>145.2154661514673</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3589331744.695657</v>
+        <v>3922731139.038977</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1346051228190998</v>
+        <v>0.139484798323673</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04212732129661253</v>
+        <v>0.05133520030641112</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>61</v>
+      </c>
+      <c r="J47" t="n">
+        <v>136</v>
+      </c>
+      <c r="K47" t="n">
+        <v>108.5424252901006</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4311705521.732494</v>
+        <v>4096968465.072712</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1043331911229589</v>
+        <v>0.07297156562566151</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02874162295055638</v>
+        <v>0.02548596985943572</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>56</v>
+      </c>
+      <c r="J48" t="n">
+        <v>137</v>
+      </c>
+      <c r="K48" t="n">
+        <v>145.9831717142279</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1367134587.359319</v>
+        <v>1251108789.805232</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1606556146568049</v>
+        <v>0.1605048804587624</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02934582928406557</v>
+        <v>0.04247262768839272</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3771328575.024599</v>
+        <v>3432986633.95988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1321056458810687</v>
+        <v>0.1772343491336665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03882999854391323</v>
+        <v>0.04741503892985295</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>137</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1134404412.409583</v>
+        <v>1503550410.736589</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1599603462768425</v>
+        <v>0.1597032700202583</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05058505594706274</v>
+        <v>0.03802246249074349</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4140911399.146625</v>
+        <v>4107673512.724014</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08788859472740015</v>
+        <v>0.1199110265833957</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05258767580248355</v>
+        <v>0.06153755631788863</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>103</v>
+      </c>
+      <c r="J52" t="n">
+        <v>137</v>
+      </c>
+      <c r="K52" t="n">
+        <v>145.8404523374043</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2843835631.059964</v>
+        <v>3582473995.174118</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1362269230082598</v>
+        <v>0.1467112339308731</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0297159163447586</v>
+        <v>0.02960828699233318</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>137</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3938001390.393677</v>
+        <v>4702915593.352313</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1354156834841344</v>
+        <v>0.1246222367152055</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0358533552682445</v>
+        <v>0.03279623422614668</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>62</v>
+      </c>
+      <c r="J54" t="n">
+        <v>137</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3450874233.724545</v>
+        <v>4329906300.970203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1455166098098788</v>
+        <v>0.145162064294913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02420409639755448</v>
+        <v>0.02033721503915421</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>63</v>
+      </c>
+      <c r="J55" t="n">
+        <v>136</v>
+      </c>
+      <c r="K55" t="n">
+        <v>134.9121610130178</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1858131087.863577</v>
+        <v>1232347595.984715</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1210334523069288</v>
+        <v>0.1028623210590962</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04860806896861815</v>
+        <v>0.05243260779158795</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3441021090.387459</v>
+        <v>3801719420.602157</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1240806038666436</v>
+        <v>0.1273760405558299</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02166344396048126</v>
+        <v>0.02307601215946297</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>136</v>
+      </c>
+      <c r="K57" t="n">
+        <v>118.3553476201489</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1276126114.723753</v>
+        <v>1737239287.214736</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1447435042183417</v>
+        <v>0.1624170517217903</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03809791072986978</v>
+        <v>0.02907919326288064</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4915385735.462705</v>
+        <v>4694272576.492182</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09598340152612395</v>
+        <v>0.08239413006737507</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04364049282820043</v>
+        <v>0.03550511627953423</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>66</v>
+      </c>
+      <c r="J59" t="n">
+        <v>137</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2405670369.626913</v>
+        <v>3403539729.51579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1445179191645744</v>
+        <v>0.1282512860356424</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0300143119817811</v>
+        <v>0.03058499128375877</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>137</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3326099002.801674</v>
+        <v>2223064250.992259</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1367698303391386</v>
+        <v>0.1788604825183132</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02812412659982079</v>
+        <v>0.02509011988133355</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326939402.791632</v>
+        <v>1595867253.388935</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1906274765574718</v>
+        <v>0.1814682186177231</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0415348957330252</v>
+        <v>0.0405964750923512</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4691293930.661432</v>
+        <v>3396540923.097878</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09113327740333828</v>
+        <v>0.0746458255863638</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04024627803844861</v>
+        <v>0.03278755810593607</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>67</v>
+      </c>
+      <c r="J63" t="n">
+        <v>135</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4991627594.708597</v>
+        <v>5426835989.817612</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1297872745418278</v>
+        <v>0.1283727573131258</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03496648741106884</v>
+        <v>0.02251610662528577</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>68</v>
+      </c>
+      <c r="J64" t="n">
+        <v>136</v>
+      </c>
+      <c r="K64" t="n">
+        <v>138.0981123307347</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3952839818.322165</v>
+        <v>5850652283.163706</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1210553030711212</v>
+        <v>0.1517596144416294</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03011156178876655</v>
+        <v>0.02189658288269345</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>114</v>
+      </c>
+      <c r="J65" t="n">
+        <v>137</v>
+      </c>
+      <c r="K65" t="n">
+        <v>147.0009712023964</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4057299892.893881</v>
+        <v>3632839036.545822</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1012825820726998</v>
+        <v>0.1542686495622758</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03820168961370039</v>
+        <v>0.04961888080907892</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>67</v>
+      </c>
+      <c r="J66" t="n">
+        <v>137</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3085326725.866658</v>
+        <v>2898854810.208616</v>
       </c>
       <c r="F67" t="n">
-        <v>0.095489308582143</v>
+        <v>0.07848494214849303</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04548435054848589</v>
+        <v>0.04348674503379829</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4170013533.166661</v>
+        <v>4152274469.205254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.150449831844008</v>
+        <v>0.1347620028916017</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03922449242803239</v>
+        <v>0.03807229834766512</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>69</v>
+      </c>
+      <c r="J68" t="n">
+        <v>136</v>
+      </c>
+      <c r="K68" t="n">
+        <v>133.8128833527793</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2018174719.221048</v>
+        <v>2051841229.302075</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1241971352440205</v>
+        <v>0.1255353461848901</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04396212404595658</v>
+        <v>0.03784057404765495</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3338194514.913966</v>
+        <v>3236886641.221911</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07009326527052927</v>
+        <v>0.06507052205807147</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03301357095470618</v>
+        <v>0.03352991283619279</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5649880864.927281</v>
+        <v>4222838292.667387</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1291312277593331</v>
+        <v>0.1798082265496546</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03214085675035811</v>
+        <v>0.02418855719066373</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>110</v>
+      </c>
+      <c r="J71" t="n">
+        <v>137</v>
+      </c>
+      <c r="K71" t="n">
+        <v>145.5611863339946</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1929536034.786196</v>
+        <v>2222772929.741785</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07629708399886009</v>
+        <v>0.07542999634061011</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0442888046276619</v>
+        <v>0.04013737526954027</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3454271122.608076</v>
+        <v>2365477473.441443</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1108866171979749</v>
+        <v>0.1005608981237068</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05084680483212307</v>
+        <v>0.04500351393029534</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3619772831.79706</v>
+        <v>2733092900.759567</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1572613336564608</v>
+        <v>0.1126448532198961</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0230702426625189</v>
+        <v>0.0327383925606978</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>45</v>
+      </c>
+      <c r="J74" t="n">
+        <v>136</v>
+      </c>
+      <c r="K74" t="n">
+        <v>63.62438209662428</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1895659937.336697</v>
+        <v>2311089819.293095</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1256663861909391</v>
+        <v>0.1067595472269637</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03614630130978517</v>
+        <v>0.03290847689890063</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4313953312.362959</v>
+        <v>4760246780.907186</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08186579040269829</v>
+        <v>0.1159050103242056</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02582408294455057</v>
+        <v>0.02508047045372893</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>63</v>
+      </c>
+      <c r="J76" t="n">
+        <v>136</v>
+      </c>
+      <c r="K76" t="n">
+        <v>117.0373181883813</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2251154326.034113</v>
+        <v>1785250953.340157</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1651451940006923</v>
+        <v>0.1725350445525421</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02770096764799675</v>
+        <v>0.02830367407983467</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3394393701.314166</v>
+        <v>2892180515.806682</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226662331263553</v>
+        <v>0.1234716676111788</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04313902348188362</v>
+        <v>0.05122429991556347</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67</v>
+      </c>
+      <c r="J78" t="n">
+        <v>135</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1773441775.795243</v>
+        <v>1644843011.277635</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1366464597455854</v>
+        <v>0.125896255872884</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03151451706538233</v>
+        <v>0.03242117025056136</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4938573616.78097</v>
+        <v>4445064239.485785</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08677605233132822</v>
+        <v>0.07285026416852233</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02368668389151137</v>
+        <v>0.02577146872629469</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>66</v>
+      </c>
+      <c r="J80" t="n">
+        <v>137</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3903541824.517413</v>
+        <v>4905761324.095042</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09062831147081739</v>
+        <v>0.1002705705735571</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02040362491688754</v>
+        <v>0.02710421893165127</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>62</v>
+      </c>
+      <c r="J81" t="n">
+        <v>137</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5513221722.452193</v>
+        <v>3695120139.884986</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1895950021126168</v>
+        <v>0.1411655766071554</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02722906869094802</v>
+        <v>0.01922432537961429</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>98</v>
+      </c>
+      <c r="J82" t="n">
+        <v>136</v>
+      </c>
+      <c r="K82" t="n">
+        <v>125.1194747783205</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1608464954.082757</v>
+        <v>2436784738.499675</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1558327366166469</v>
+        <v>0.102228037845944</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0290818665687452</v>
+        <v>0.03501585745428514</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2500936458.744376</v>
+        <v>2295782852.038241</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0731031179749473</v>
+        <v>0.07782496329380076</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04031709398716327</v>
+        <v>0.0467881708968059</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3528277067.452747</v>
+        <v>3646901678.746333</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850133165660292</v>
+        <v>0.1796876119172445</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05313074873915494</v>
+        <v>0.04578358103530181</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>137</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2755334259.114229</v>
+        <v>2561035950.081058</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1457486008777137</v>
+        <v>0.1260709046198561</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01726016077640648</v>
+        <v>0.02313811205311015</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1297108699.459895</v>
+        <v>1234807602.243518</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1274498293156455</v>
+        <v>0.1196190145064684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0311962963625412</v>
+        <v>0.03413600575840163</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2270481380.429599</v>
+        <v>2761407810.683407</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1274390846221243</v>
+        <v>0.11731946060275</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03853669808389208</v>
+        <v>0.02779076197202974</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2228566092.970339</v>
+        <v>3058535782.331646</v>
       </c>
       <c r="F89" t="n">
-        <v>0.104617433756174</v>
+        <v>0.1059275555425331</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03048147855960704</v>
+        <v>0.02779269854258017</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1774431310.608425</v>
+        <v>1944543020.364512</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1165129857845024</v>
+        <v>0.09426197778118159</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05277638126617328</v>
+        <v>0.05535115890497178</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1942809773.084057</v>
+        <v>1835173357.262496</v>
       </c>
       <c r="F91" t="n">
-        <v>0.19498953003574</v>
+        <v>0.1383483848689294</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03828690377766616</v>
+        <v>0.05356228579821871</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2465368767.156125</v>
+        <v>2245078471.872567</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1085647220114008</v>
+        <v>0.1035949686107212</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03075445849524291</v>
+        <v>0.04387328782564617</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4389584607.871522</v>
+        <v>3156702840.749037</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1194790613268637</v>
+        <v>0.107506727953387</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03299900475722013</v>
+        <v>0.04270352932788318</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>62</v>
+      </c>
+      <c r="J93" t="n">
+        <v>136</v>
+      </c>
+      <c r="K93" t="n">
+        <v>80.10279814202946</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1822642851.028354</v>
+        <v>2272320365.456736</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1212066397315394</v>
+        <v>0.1674211252094318</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03667617443543117</v>
+        <v>0.03637350856428079</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2384098819.50878</v>
+        <v>2581097151.161855</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09304568151635202</v>
+        <v>0.09231644621484145</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04690659205233873</v>
+        <v>0.04016051669157017</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1918283784.205564</v>
+        <v>1769747479.142447</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09103104016450142</v>
+        <v>0.1104939192834853</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03193869915199391</v>
+        <v>0.03767697966749128</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4313062430.587365</v>
+        <v>3398090978.727489</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1240411148934732</v>
+        <v>0.1621089779609076</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02674862879068584</v>
+        <v>0.02404108853913938</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>65</v>
+      </c>
+      <c r="J97" t="n">
+        <v>137</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2649845313.93842</v>
+        <v>3252505721.151181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.122991727071922</v>
+        <v>0.08697163906008898</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03208826198071357</v>
+        <v>0.02718472599409403</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2406787779.630494</v>
+        <v>2523916361.344663</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1057950111682968</v>
+        <v>0.1297481008825073</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02469198413909788</v>
+        <v>0.02841252949624619</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3403191339.039019</v>
+        <v>3510670722.400836</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1312392448246118</v>
+        <v>0.1112323003115204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0264362972734124</v>
+        <v>0.0194421207357475</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>56</v>
+      </c>
+      <c r="J100" t="n">
+        <v>136</v>
+      </c>
+      <c r="K100" t="n">
+        <v>97.80918495614964</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2501892545.976195</v>
+        <v>2828460989.527543</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1850722232734331</v>
+        <v>0.2072494388236494</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04140748196762813</v>
+        <v>0.04079016774890407</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
